--- a/Mifos Automation Excels/Client/4448-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-DuringDIS-Change-EX-DISDATE-otherthanmeetingdate.xlsx
+++ b/Mifos Automation Excels/Client/4448-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-DuringDIS-Change-EX-DISDATE-otherthanmeetingdate.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>submittedon</t>
   </si>
@@ -203,9 +208,6 @@
     <t>Paid Date</t>
   </si>
   <si>
-    <t>heading</t>
-  </si>
-  <si>
     <t>Principal Due</t>
   </si>
   <si>
@@ -257,22 +259,22 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>verify1</t>
-  </si>
-  <si>
-    <t>Actual disbursement date `2015-01-20` does not fall on a meeting date.</t>
-  </si>
-  <si>
     <t>center4448</t>
   </si>
   <si>
     <t>Group4448</t>
+  </si>
+  <si>
+    <t>selectRepeatevery</t>
+  </si>
+  <si>
+    <t>FRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -306,11 +308,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -356,41 +357,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -430,15 +401,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,6 +419,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -496,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,9 +503,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,6 +555,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -761,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -832,31 +840,39 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -885,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -963,10 +979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1103,14 +1119,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1121,7 +1129,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1212,28 +1220,28 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1251,8 +1259,8 @@
       <c r="E2" s="19">
         <v>10000</v>
       </c>
-      <c r="F2" s="24">
-        <v>6635.91</v>
+      <c r="F2" s="22">
+        <v>8314.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1272,7 +1280,7 @@
         <v>150.63999999999999</v>
       </c>
       <c r="F3" s="20">
-        <v>131.21</v>
+        <v>144.80000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1322,69 +1330,66 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="23">
-        <v>42034</v>
+      <c r="C2" s="21">
+        <v>42024</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1407,23 +1412,24 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" s="20">
-        <v>7</v>
-      </c>
-      <c r="C3" s="23">
-        <v>42041</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42027</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20">
         <v>822.81</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="22">
         <v>9177.19</v>
       </c>
       <c r="H3" s="20">
@@ -1444,29 +1450,31 @@
       <c r="M3" s="20">
         <v>0</v>
       </c>
-      <c r="N3" s="20">
-        <v>0</v>
-      </c>
-      <c r="P3" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="20"/>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="20">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
-        <v>42048</v>
+      <c r="C4" s="21">
+        <v>42034</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20">
         <v>824.71</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>8352.48</v>
       </c>
       <c r="H4" s="20">
@@ -1487,29 +1495,31 @@
       <c r="M4" s="20">
         <v>0</v>
       </c>
-      <c r="N4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
-        <v>42055</v>
+      <c r="C5" s="21">
+        <v>42041</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20">
         <v>826.62</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>7525.86</v>
       </c>
       <c r="H5" s="20">
@@ -1530,29 +1540,31 @@
       <c r="M5" s="20">
         <v>0</v>
       </c>
-      <c r="N5" s="20">
-        <v>0</v>
-      </c>
-      <c r="P5" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N5" s="20"/>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="20">
         <v>7</v>
       </c>
-      <c r="C6" s="23">
-        <v>42062</v>
+      <c r="C6" s="21">
+        <v>42048</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20">
         <v>828.52</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>6697.34</v>
       </c>
       <c r="H6" s="20">
@@ -1573,29 +1585,31 @@
       <c r="M6" s="20">
         <v>0</v>
       </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="20">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
-        <v>42069</v>
+      <c r="C7" s="21">
+        <v>42055</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
         <v>830.43</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>5866.91</v>
       </c>
       <c r="H7" s="20">
@@ -1616,29 +1630,31 @@
       <c r="M7" s="20">
         <v>0</v>
       </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N7" s="20"/>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="20">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
-        <v>42076</v>
+      <c r="C8" s="21">
+        <v>42062</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20">
         <v>832.35</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <v>5034.5600000000004</v>
       </c>
       <c r="H8" s="20">
@@ -1659,29 +1675,31 @@
       <c r="M8" s="20">
         <v>0</v>
       </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
-        <v>42083</v>
+      <c r="C9" s="21">
+        <v>42069</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
         <v>834.27</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>4200.29</v>
       </c>
       <c r="H9" s="20">
@@ -1702,29 +1720,31 @@
       <c r="M9" s="20">
         <v>0</v>
       </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="23">
-        <v>42090</v>
+      <c r="C10" s="21">
+        <v>42076</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <v>836.2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>3364.09</v>
       </c>
       <c r="H10" s="20">
@@ -1745,29 +1765,31 @@
       <c r="M10" s="20">
         <v>0</v>
       </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="23">
-        <v>42097</v>
+      <c r="C11" s="21">
+        <v>42083</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20">
         <v>838.13</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>2525.96</v>
       </c>
       <c r="H11" s="20">
@@ -1788,29 +1810,31 @@
       <c r="M11" s="20">
         <v>0</v>
       </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N11" s="20"/>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="23">
-        <v>42104</v>
+      <c r="C12" s="21">
+        <v>42090</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20">
         <v>840.06</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>1685.9</v>
       </c>
       <c r="H12" s="20">
@@ -1831,22 +1855,24 @@
       <c r="M12" s="20">
         <v>0</v>
       </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>11</v>
       </c>
       <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="23">
-        <v>42111</v>
+      <c r="C13" s="21">
+        <v>42097</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1874,22 +1900,24 @@
       <c r="M13" s="20">
         <v>0</v>
       </c>
-      <c r="N13" s="20">
-        <v>0</v>
-      </c>
-      <c r="P13" s="20">
-        <v>845.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20">
+        <v>845.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="20">
         <v>7</v>
       </c>
-      <c r="C14" s="23">
-        <v>42118</v>
+      <c r="C14" s="21">
+        <v>42104</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1917,10 +1945,12 @@
       <c r="M14" s="20">
         <v>0</v>
       </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>845.85</v>
       </c>
     </row>
@@ -1934,55 +1964,55 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42024</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="E2" s="19">
         <v>10000</v>
